--- a/src/main/java/qa/testdata/Data.xlsx
+++ b/src/main/java/qa/testdata/Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengj\Documents\QA_Projects\POM-Selenium\src\main\java\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4B1D95-C813-41AE-A973-AA557DBCEC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5560772C-D4E4-464F-8ECD-E3AD8F846449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37725" yWindow="4650" windowWidth="17250" windowHeight="9945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14304" yWindow="0" windowWidth="8832" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Form" sheetId="1" r:id="rId1"/>
+    <sheet name="Home_Dropdown" sheetId="2" r:id="rId1"/>
+    <sheet name="Form" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>first name</t>
   </si>
@@ -43,6 +44,51 @@
   </si>
   <si>
     <t>Downy</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Desktops</t>
+  </si>
+  <si>
+    <t>Laptops &amp; Notebooks</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Tablets</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Phones &amp; PDAs</t>
+  </si>
+  <si>
+    <t>Cameras</t>
+  </si>
+  <si>
+    <t>PC, Mac</t>
+  </si>
+  <si>
+    <t>Macs, Windows</t>
+  </si>
+  <si>
+    <t>Mice and Trackballs, Monitors, Printers, Scanners, Web Cameras</t>
+  </si>
+  <si>
+    <t>MP3 Players</t>
+  </si>
+  <si>
+    <t>test 11, test 12, test 15, test 16, test 17, test 18, test 19, test 20, test 21, test 22, test 23, test 24, test 4, test 5, test 6, test 7, test 8, test 9</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
   </si>
 </sst>
 </file>
@@ -366,10 +412,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB99515B-8C85-437D-987F-E785AB7E7448}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
